--- a/project/send/Inguerito.xlsx
+++ b/project/send/Inguerito.xlsx
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">Cultura Organizacional</t>
   </si>
   <si>
     <t xml:space="preserve">Nome:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">João Carvalho</t>
   </si>
   <si>
     <t xml:space="preserve">A afirmação não se aplica rigorosamente nada à minha organização</t>
@@ -361,10 +358,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -391,9 +388,7 @@
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -428,38 +423,38 @@
     </row>
     <row r="7" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="6" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I8" s="7" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I8" s="7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -471,10 +466,10 @@
     </row>
     <row r="10" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -486,10 +481,10 @@
     </row>
     <row r="11" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -501,10 +496,10 @@
     </row>
     <row r="12" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -516,10 +511,10 @@
     </row>
     <row r="13" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -531,10 +526,10 @@
     </row>
     <row r="14" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -546,10 +541,10 @@
     </row>
     <row r="15" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -561,10 +556,10 @@
     </row>
     <row r="16" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -576,10 +571,10 @@
     </row>
     <row r="17" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -591,10 +586,10 @@
     </row>
     <row r="18" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -606,10 +601,10 @@
     </row>
     <row r="19" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -621,10 +616,10 @@
     </row>
     <row r="20" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -636,10 +631,10 @@
     </row>
     <row r="21" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -651,10 +646,10 @@
     </row>
     <row r="22" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -666,10 +661,10 @@
     </row>
     <row r="23" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -681,10 +676,10 @@
     </row>
     <row r="24" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -694,9 +689,9 @@
       <c r="H24" s="6"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
-        <v>43</v>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
